--- a/3sem/Econom/1/поступление средств во ВНБ.xlsx
+++ b/3sem/Econom/1/поступление средств во ВНБ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seron\Desktop\study\3sem\Econom\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26044725-D3FE-48C2-87D5-CE81186CC641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05299BBC-3C75-48D7-A3DF-2A60DA861549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="поступление средств ПФР" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Поступление - всего</t>
   </si>
@@ -292,6 +292,9 @@
   <si>
     <t>   межбюджетные трансферты в бюджет Фонда социального страхования Российской Федерации на оплату медицинской помощи женщинам в период беременности, родов и в послеродовом периоде, а также профилактического медицинского осмотра ребенка в течение первого года жизни</t>
   </si>
+  <si>
+    <t>По моему мнению, финансовая неустойчивость пенсионного фонда связана с тем, что моментами количество пенсионеров увеличивается быстрее, чем поступают средства</t>
+  </si>
 </sst>
 </file>
 
@@ -514,7 +517,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2909,6 +2912,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1FB7-47B0-B61A-E41C83CC2804}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2929,6 +2937,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1FB7-47B0-B61A-E41C83CC2804}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3440,6 +3453,2115 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> поступления средств ОМС 1995-2019 г.г.</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   налоги, страховые взносы1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>327186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1073301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1218628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1537777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1624426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1705753</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1862264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2043442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04EC-45A9-BCA4-9EEF9E208F14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   межбюджетный трансферт бюджету Федерального фонда ОМС на компенсацию выпадающих доходов бюджета ФОМС в связи с установлением пониженных тарифов страховых взносов на ОМС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51810</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25780</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23860</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25441</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32194</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04EC-45A9-BCA4-9EEF9E208F14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="462680239"/>
+        <c:axId val="399752271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="462680239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399752271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399752271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462680239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1071596675415573"/>
+          <c:y val="0.71296077573636618"/>
+          <c:w val="0.79679177602799645"/>
+          <c:h val="0.26852070574511522"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График поступления и расходования средств</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> ОМС</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Поступление</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>966542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1101352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1250545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1573543</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1657620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1737164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1895924</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2123988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0A-4587-A8BF-98D889073505}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Расходование</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$6:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>932158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1048723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1268658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1638815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1590151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1654990</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1988542</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2186738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D0A-4587-A8BF-98D889073505}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491640367"/>
+        <c:axId val="491801647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491640367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491801647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491801647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491640367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> расходования ОМС</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   субвенции бюджетам территориальных фондов ОМС на финансовое обеспечение организации обязательного медицинского страхования на территориях субъектов Российской Федерации2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1025413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1173928</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1412101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1458573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1537215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1870360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2068282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4AE-428E-8651-B549CCCF5A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   субсидии бюджетам территориальных фондов  ОМС на проведение дополнительной диспансеризации работающих граждан</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4AE-428E-8651-B549CCCF5A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   межбюджетные трансферты в бюджет Фонда социального страхования Российской Федерации на оплату медицинской помощи женщинам в период беременности, родов и в послеродовом периоде, а также профилактического медицинского осмотра ребенка в течение первого го</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$10:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17819</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D4AE-428E-8651-B549CCCF5A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ОМС бюджет'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   на финансирование расходов на содержание исполнительного органа Фонда</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ОМС бюджет'!$B$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D4AE-428E-8651-B549CCCF5A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="466329135"/>
+        <c:axId val="491802063"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="466329135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491802063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491802063"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466329135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3717,6 +5839,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6247,6 +8489,1515 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6970,6 +10721,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>385762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1347787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168BD62B-54F8-4173-ACFA-B2E01AA68A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22FFB31-CD57-450C-B711-3C5FF9AEF298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE4D9AF-61C5-4FAC-85FA-112F827BC289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -7235,8 +11099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7586,10 +11450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E35"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8188,33 +12052,46 @@
         <v>111381</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="B32:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8226,8 +12103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8754,5 +12631,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>